--- a/medicine/Mort/Cimetière_de_Bogenhausen/Cimetière_de_Bogenhausen.xlsx
+++ b/medicine/Mort/Cimetière_de_Bogenhausen/Cimetière_de_Bogenhausen.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Bogenhausen</t>
+          <t>Cimetière_de_Bogenhausen</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cimetière de Bognehausen (Bogenhausener Friedhof), officiellement cimetière Saint-Georges de Bogenhausen (Friedhof St. Georg), est un cimetière qui se trouve en Bavière et qui dépend de l'église Saint-Georges de Bogenhausen, sur la rive droite de l'Isar dans le secteur munichois de Bogenhausen. 
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Bogenhausen</t>
+          <t>Cimetière_de_Bogenhausen</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il s'agit d'un petit cimetière aux sépultures simples, loin des mausolées et sépultures ouvragées des grands cimetières munichois. Il donne directement sur le parvis de l'église Saint-Georges. Il est entouré d'un mur et divisé en trois sections. Depuis le milieu des années 1950, il abrite nombre de tombes de personnalités du monde de l'art et du cinéma ou de la culture en général.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Bogenhausen</t>
+          <t>Cimetière_de_Bogenhausen</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est au IXe siècle que le cimetière de Bogenhausen est documenté et au fil des siècles il abrite des familles du village qui finit par être rattaché à Munich en 1892. Le vieux cimetière paroissial est géré par la municipalité de Munich à partir de 1902. Il est complètement réaménagé en 1952 et en 1959 la section municipale, la division n° 3 et tout le long des murs d'enceinte sont conçus en forme de jardin ouvert et les anciennes tombes détruites. En général les concessions sont réservées pour une quinzaine d'années et doivent être réclamées pour être prolongées[réf. nécessaire].
 </t>
@@ -555,7 +571,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Bogenhausen</t>
+          <t>Cimetière_de_Bogenhausen</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -573,7 +589,9 @@
           <t>Personnalités inhumées</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>L'acteur Rolf Boysen (1920–2014)
 L'écrivain Joseph Breitbach (1903–1980)
